--- a/input/fsh/scripts/carin-digital-insurance-card-server.xlsx
+++ b/input/fsh/scripts/carin-digital-insurance-card-server.xlsx
@@ -1,37 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cspears/dev/fhir/fsh/davinci/carin/temp_dic/carin-digital-insurance-card/input/fsh/scripts/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C950B9-8BC5-B44D-B200-DEE8A7CA19AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-38400" yWindow="-1100" windowWidth="38400" windowHeight="22380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="config" sheetId="1" r:id="rId4"/>
-    <sheet name="meta" sheetId="2" r:id="rId5"/>
-    <sheet name="igs" sheetId="3" r:id="rId6"/>
-    <sheet name="profiles" sheetId="4" r:id="rId7"/>
-    <sheet name="resources" sheetId="5" r:id="rId8"/>
-    <sheet name="ops" sheetId="6" r:id="rId9"/>
-    <sheet name="interactions" sheetId="7" r:id="rId10"/>
-    <sheet name="rest_interactions" sheetId="8" r:id="rId11"/>
-    <sheet name="sps" sheetId="9" r:id="rId12"/>
-    <sheet name="sp_combos" sheetId="10" r:id="rId13"/>
+    <sheet name="config" sheetId="1" r:id="rId1"/>
+    <sheet name="meta" sheetId="2" r:id="rId2"/>
+    <sheet name="igs" sheetId="3" r:id="rId3"/>
+    <sheet name="profiles" sheetId="4" r:id="rId4"/>
+    <sheet name="resources" sheetId="5" r:id="rId5"/>
+    <sheet name="ops" sheetId="6" r:id="rId6"/>
+    <sheet name="interactions" sheetId="7" r:id="rId7"/>
+    <sheet name="rest_interactions" sheetId="8" r:id="rId8"/>
+    <sheet name="sps" sheetId="9" r:id="rId9"/>
+    <sheet name="sp_combos" sheetId="10" r:id="rId10"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="X1" authorId="0">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>User:
 not used -for algorithmic generation of combos</t>
@@ -43,18 +65,19 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="X1" authorId="0">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>User:
 not being used since enumerating for US Core</t>
@@ -66,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="162">
   <si>
     <t>Element</t>
   </si>
@@ -91,10 +114,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>http://hl7.org/fhir/us/insurance-card/</t>
     </r>
@@ -117,10 +141,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>http://www.hl7.org/Special/Committees/claims</t>
     </r>
@@ -194,10 +219,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>http://hl7.org/fhir/us/insurance-card/ImplementationGuide/hl7.fhir.us.insurance-card</t>
     </r>
@@ -212,661 +238,437 @@
     <t>documentation</t>
   </si>
   <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>1. See the [General Security Considerations](Authorization_Authentication_and_Registration.html) section for requirements and recommendations.
+1. A server **SHALL** reject any unauthorized requests by returning an `HTTP 401` unauthorized response code.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Conformance</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Coverage</t>
+    </r>
+  </si>
+  <si>
+    <t>C4DIC-Coverage</t>
+  </si>
+  <si>
+    <t>SHALL</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Abstract Profile, should go in profiles, not supporting_profiles</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Organization</t>
+    </r>
+  </si>
+  <si>
+    <t>C4DIC-Organization</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Patient</t>
+    </r>
+  </si>
+  <si>
+    <t>C4DIC-Patient</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>conformance</t>
+  </si>
+  <si>
+    <t>versioning</t>
+  </si>
+  <si>
+    <t>versioning_conf</t>
+  </si>
+  <si>
+    <t>readHistory</t>
+  </si>
+  <si>
+    <t>readHistory_conf</t>
+  </si>
+  <si>
+    <t>updateCreate</t>
+  </si>
+  <si>
+    <t>updateCreate_conf</t>
+  </si>
+  <si>
+    <t>conditionalCreate</t>
+  </si>
+  <si>
+    <t>conditionalCreate_conf</t>
+  </si>
+  <si>
+    <t>conditionalRead</t>
+  </si>
+  <si>
+    <t>conditionalRead_conf</t>
+  </si>
+  <si>
+    <t>conditionalUpdate</t>
+  </si>
+  <si>
+    <t>conditionalUpdate_conf</t>
+  </si>
+  <si>
+    <t>conditionalDelete</t>
+  </si>
+  <si>
+    <t>conditionalDelete_conf</t>
+  </si>
+  <si>
+    <t>referencePolicy</t>
+  </si>
+  <si>
+    <t>referencePolicy_conf</t>
+  </si>
+  <si>
+    <t>shall_include</t>
+  </si>
+  <si>
+    <t>should_include</t>
+  </si>
+  <si>
+    <t>shall_revinclude</t>
+  </si>
+  <si>
+    <t>should_revinclude</t>
+  </si>
+  <si>
+    <t>forbidden_s_combos</t>
+  </si>
+  <si>
+    <t>resolves</t>
+  </si>
+  <si>
+    <t>Coverage:beneficiary, Coverage:payor</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>conf</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>conf_Coverage</t>
+  </si>
+  <si>
+    <t>conf_Patient</t>
+  </si>
+  <si>
+    <t>conf_Organization</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>search-type</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>vread</t>
+  </si>
+  <si>
+    <t>SHOULD</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>history-instance</t>
+  </si>
+  <si>
+    <t>history-type</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>search-system</t>
+  </si>
+  <si>
+    <t>history-system</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>base_conf</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>exists</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>multipleOr</t>
+  </si>
+  <si>
+    <t>multipleOr_conf</t>
+  </si>
+  <si>
+    <t>multipleAnd</t>
+  </si>
+  <si>
+    <t>multipleAnd_conf</t>
+  </si>
+  <si>
+    <t>shall_modifier</t>
+  </si>
+  <si>
+    <t>should_modifier</t>
+  </si>
+  <si>
+    <t>shall_comparator</t>
+  </si>
+  <si>
+    <t>should_comparator</t>
+  </si>
+  <si>
+    <t>shall_chain</t>
+  </si>
+  <si>
+    <t>should_chain</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>combo_pairs</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>imp_note</t>
+  </si>
+  <si>
+    <t>rel_url</t>
+  </si>
+  <si>
+    <t>!EXAMPLE CATEGORY SEARCH</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>!EXAMPLE CODE SEARCH</t>
+  </si>
+  <si>
+    <t>!EXAMPLE DATE SEARCH</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>!EXAMPLE PATIENT SEARCH</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>!EXAMPLE STATUS SEARCH</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>!Patient</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>support searching a patient based on text address</t>
+  </si>
+  <si>
+    <t>telecom</t>
+  </si>
+  <si>
+    <t>support searching a patient based on contact information such as phone number or email address</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>_lastUpdated</t>
+  </si>
+  <si>
+    <t>beneficiary</t>
+  </si>
+  <si>
+    <t>subscriber</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>Coverage.period</t>
+  </si>
+  <si>
+    <t>Coverage.status</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>combo</t>
+  </si>
+  <si>
+    <t>combo_conf</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>fixed_kv</t>
+  </si>
+  <si>
     <t>The C4DIC Server **SHALL**:
 1.	Support all profiles defined in this Implementation Guide.
-2.	Implement the RESTful behavior according to the FHIR specification.
-3.	For all the supported search interactions in this guide, support the GET based search.
-4.	Return the following response classes:
+2.	Support json source formats for all C4DIC interactions.
+3.	Implement the RESTful behavior according to the FHIR specification.
+4.	For all the supported search interactions in this guide, support the GET based search.
+5.	Return the following response classes:
 •	(Status 400): invalid parameter
 •	(Status 401/4xx): unauthorized request
 •	(Status 403): insufficient scopes
 •	(Status 404): unknown resource
 •	(Status 410): deleted resource
-5.	Support json source formats for all profiles C4DIC interactions.
-6.	Identify the C4DIC profiles supported as part of the FHIR meta.profile attribute for each instance.
-7.	Support the searchParameters on each profile individually and in combination.
+6.	Support json source formats for all profiles C4DIC interactions.
+7.	Identify the C4DIC profiles supported as part of the FHIR meta.profile attribute for each instance.
+8.	Support the searchParameters on each profile individually and in combination.
 The C4DIC Server **SHOULD**:
 1.	Support xml source formats for all C4DIC interactions.</t>
   </si>
   <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>1. See the [General Security Considerations](Authorization_Authentication_and_Registration.html) section for requirements and recommendations.
-1. A server **SHALL** reject any unauthorized requests by returning an `HTTP 401` unauthorized response code.</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Conformance</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Coverage</t>
-    </r>
-  </si>
-  <si>
-    <t>C4DIC-Coverage</t>
-  </si>
-  <si>
-    <t>SHALL</t>
-  </si>
-  <si>
-    <t>Coverage</t>
-  </si>
-  <si>
-    <t>Abstract Profile, should go in profiles, not supporting_profiles</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Organization</t>
-    </r>
-  </si>
-  <si>
-    <t>C4DIC-Organization</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Patient</t>
-    </r>
-  </si>
-  <si>
-    <t>C4DIC-Patient</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>conformance</t>
-  </si>
-  <si>
-    <t>versioning</t>
-  </si>
-  <si>
-    <t>versioning_conf</t>
-  </si>
-  <si>
-    <t>readHistory</t>
-  </si>
-  <si>
-    <t>readHistory_conf</t>
-  </si>
-  <si>
-    <t>updateCreate</t>
-  </si>
-  <si>
-    <t>updateCreate_conf</t>
-  </si>
-  <si>
-    <t>conditionalCreate</t>
-  </si>
-  <si>
-    <t>conditionalCreate_conf</t>
-  </si>
-  <si>
-    <t>conditionalRead</t>
-  </si>
-  <si>
-    <t>conditionalRead_conf</t>
-  </si>
-  <si>
-    <t>conditionalUpdate</t>
-  </si>
-  <si>
-    <t>conditionalUpdate_conf</t>
-  </si>
-  <si>
-    <t>conditionalDelete</t>
-  </si>
-  <si>
-    <t>conditionalDelete_conf</t>
-  </si>
-  <si>
-    <t>referencePolicy</t>
-  </si>
-  <si>
-    <t>referencePolicy_conf</t>
-  </si>
-  <si>
-    <t>shall_include</t>
-  </si>
-  <si>
-    <t>should_include</t>
-  </si>
-  <si>
-    <t>shall_revinclude</t>
-  </si>
-  <si>
-    <t>should_revinclude</t>
-  </si>
-  <si>
-    <t>forbidden_s_combos</t>
-  </si>
-  <si>
-    <t>resolves</t>
-  </si>
-  <si>
-    <t>Coverage:beneficiary, Coverage:payor</t>
-  </si>
-  <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t>conf</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>conf_Coverage</t>
-  </si>
-  <si>
-    <t>conf_Patient</t>
-  </si>
-  <si>
-    <t>conf_Organization</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>search-type</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>vread</t>
-  </si>
-  <si>
-    <t>SHOULD</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>patch</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>history-instance</t>
-  </si>
-  <si>
-    <t>history-type</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>transaction</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>search-system</t>
-  </si>
-  <si>
-    <t>history-system</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>base_conf</t>
-  </si>
-  <si>
-    <t>display</t>
-  </si>
-  <si>
-    <t>profile</t>
-  </si>
-  <si>
-    <t>exists</t>
-  </si>
-  <si>
-    <t>expression</t>
-  </si>
-  <si>
-    <t>multipleOr</t>
-  </si>
-  <si>
-    <t>multipleOr_conf</t>
-  </si>
-  <si>
-    <t>multipleAnd</t>
-  </si>
-  <si>
-    <t>multipleAnd_conf</t>
-  </si>
-  <si>
-    <t>shall_modifier</t>
-  </si>
-  <si>
-    <t>should_modifier</t>
-  </si>
-  <si>
-    <t>shall_comparator</t>
-  </si>
-  <si>
-    <t>should_comparator</t>
-  </si>
-  <si>
-    <t>shall_chain</t>
-  </si>
-  <si>
-    <t>should_chain</t>
-  </si>
-  <si>
-    <t>references</t>
-  </si>
-  <si>
-    <t>combo_pairs</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>imp_note</t>
-  </si>
-  <si>
-    <t>rel_url</t>
-  </si>
-  <si>
-    <t>!EXAMPLE CATEGORY SEARCH</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>MAY</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example category search</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>!EXAMPLE CATEGORY SEARCH.category</t>
-  </si>
-  <si>
-    <t>SearchParameter-us-core-!example category search-category.html</t>
-  </si>
-  <si>
-    <t>!EXAMPLE CODE SEARCH</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example code search</t>
-  </si>
-  <si>
-    <t>!EXAMPLE CODE SEARCH.code</t>
-  </si>
-  <si>
-    <t>SearchParameter-us-core-!example code search-code.html</t>
-  </si>
-  <si>
-    <t>!EXAMPLE DATE SEARCH</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example date search</t>
-  </si>
-  <si>
-    <t>!EXAMPLE DATE SEARCH.date</t>
-  </si>
-  <si>
-    <t>SearchParameter-us-core-!example date search-date.html</t>
-  </si>
-  <si>
-    <t>!EXAMPLE PATIENT SEARCH</t>
-  </si>
-  <si>
-    <t>patient</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example patient search</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>!EXAMPLE PATIENT SEARCH.patient</t>
-  </si>
-  <si>
-    <t>support searching for all !example patient searchs for a patient</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all !EXAMPLE PATIENT SEARCH resources for the specified patient</t>
-  </si>
-  <si>
-    <t>SearchParameter-us-core-!example patient search-patient.html</t>
-  </si>
-  <si>
-    <t>!EXAMPLE STATUS SEARCH</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example status search</t>
-  </si>
-  <si>
-    <t>!EXAMPLE STATUS SEARCH.status</t>
-  </si>
-  <si>
-    <t>SearchParameter-us-core-!example status search-status.html</t>
-  </si>
-  <si>
-    <t>!Patient</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!patient</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>!Patient.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="11"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>address</t>
-    </r>
-  </si>
-  <si>
-    <t>support searching a patient based on text address</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>SearchParameter-us-core-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>!patient-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="11"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>address</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>.html</t>
-    </r>
-  </si>
-  <si>
-    <t>telecom</t>
-  </si>
-  <si>
-    <t>!Patient.telecom</t>
-  </si>
-  <si>
-    <t>support searching a patient based on contact information such as phone number or email address</t>
-  </si>
-  <si>
-    <t>SearchParameter-us-core-!patient-telecom.html</t>
-  </si>
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>Coverage.managingOrganization</t>
-  </si>
-  <si>
-    <t>Support searching for a !Patient by its _id</t>
-  </si>
-  <si>
-    <t>SearchParameter-carin-dic-coverage-_id.html</t>
-  </si>
-  <si>
-    <t>_lastUpdated</t>
-  </si>
-  <si>
-    <t>Coverage._lastUpdated</t>
-  </si>
-  <si>
-    <t>Support searching for a Coverage by its _lastUpdated</t>
-  </si>
-  <si>
-    <t>SearchParameter-carin-dic-coverage-_lastupdated.html</t>
-  </si>
-  <si>
-    <t>beneficiary</t>
-  </si>
-  <si>
-    <t>Coverage.beneficiary</t>
-  </si>
-  <si>
-    <t>Support searching for a Coverage by its beneficiary</t>
-  </si>
-  <si>
-    <t>SearchParameter-carin-dic-coverage-beneficiary.html</t>
-  </si>
-  <si>
-    <t>subscriber</t>
-  </si>
-  <si>
-    <t>Coverage.provided_by</t>
-  </si>
-  <si>
-    <t>Support searching for a Coverage by its subscriber</t>
-  </si>
-  <si>
-    <t>SearchParameter-carin-dic-coverage-subscriber.html</t>
-  </si>
-  <si>
-    <t>Coverage.patient</t>
-  </si>
-  <si>
-    <t>Support searching for a Coverage by its patient</t>
-  </si>
-  <si>
-    <t>SearchParameter-carin-dic-coverage-patient.html</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t>Coverage.identifier</t>
-  </si>
-  <si>
-    <t>Support searching for a Coverage by its identifier</t>
-  </si>
-  <si>
-    <t>SearchParameter-carin-dic-coverage-identifier.html</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t>Coverage.period</t>
-  </si>
-  <si>
-    <t>Support searching for a Coverage by its period</t>
-  </si>
-  <si>
-    <t>SearchParameter-carin-dic-coverage-period.html</t>
-  </si>
-  <si>
-    <t>Coverage.status</t>
-  </si>
-  <si>
-    <t>Support searching for a Coverage by its status</t>
-  </si>
-  <si>
-    <t>SearchParameter-carin-dic-coverage-status.html</t>
-  </si>
-  <si>
-    <t>Patient._id</t>
-  </si>
-  <si>
-    <t>Support searching for a Coverage by its _id</t>
-  </si>
-  <si>
-    <t>SearchParameter-carin-dic-patient-_id.html</t>
-  </si>
-  <si>
-    <t>Patient._lastUpdated</t>
-  </si>
-  <si>
-    <t>SearchParameter-carin-dic-patient-_lastupdated.html</t>
-  </si>
-  <si>
-    <t>Patient.identifier</t>
-  </si>
-  <si>
-    <t>Support searching for a Patient by its identifier</t>
-  </si>
-  <si>
-    <t>SearchParameter-carin-dic-patient-identifier.html</t>
-  </si>
-  <si>
-    <t>Patient.name</t>
-  </si>
-  <si>
-    <t>Support searching for a Patient by its name</t>
-  </si>
-  <si>
-    <t>SearchParameter-carin-dic-patient-name.html</t>
-  </si>
-  <si>
-    <t>Organization._id</t>
-  </si>
-  <si>
-    <t>Support searching for a Patient by its _id</t>
-  </si>
-  <si>
-    <t>SearchParameter-carin-dic-organization-_id.html</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>combo</t>
-  </si>
-  <si>
-    <t>combo_conf</t>
-  </si>
-  <si>
-    <t>types</t>
-  </si>
-  <si>
-    <t>fixed_kv</t>
+    <t>Example Query: {baseurl}/Coverage?_profile=http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Coverage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Monaco"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -877,78 +679,99 @@
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Monaco"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <color indexed="8"/>
       <name val="Monaco"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="13"/>
       <color indexed="13"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="15"/>
       <color indexed="15"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="11"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="13"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="11"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="17"/>
       <name val="Monaco"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1086,244 +909,134 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="80">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1333,39 +1046,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0563c1"/>
-      <rgbColor rgb="ff333333"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff44546a"/>
-      <rgbColor rgb="ffa1b8e1"/>
-      <rgbColor rgb="ff201f1e"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ff005c00"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF44546A"/>
+      <rgbColor rgb="FFA1B8E1"/>
+      <rgbColor rgb="FF201F1E"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF005C00"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1567,7 +1326,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1586,7 +1345,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1616,7 +1375,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1642,7 +1401,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1668,7 +1427,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1694,7 +1453,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1720,7 +1479,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1746,7 +1505,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1772,7 +1531,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1798,7 +1557,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1824,7 +1583,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1837,9 +1596,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1856,7 +1621,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1875,7 +1640,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1901,7 +1666,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1927,7 +1692,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1953,7 +1718,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1979,7 +1744,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2005,7 +1770,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2031,7 +1796,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2057,7 +1822,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2083,7 +1848,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2109,7 +1874,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2122,9 +1887,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2138,7 +1909,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2157,7 +1928,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2187,7 +1958,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2213,7 +1984,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2239,7 +2010,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2265,7 +2036,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2291,7 +2062,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2317,7 +2088,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2343,7 +2114,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2369,7 +2140,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2395,7 +2166,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2408,169 +2179,176 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="61.8516" style="1" customWidth="1"/>
-    <col min="3" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.83203125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="b" s="4">
+      <c r="B2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="17.05" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:5" ht="17" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" t="s" s="2">
+    <row r="11" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" t="s" s="2">
+    <row r="12" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="2">
+    <row r="13" spans="1:5" ht="16" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="6">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="3"/>
@@ -2579,11 +2357,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" location="" tooltip="" display="http://hl7.org/fhir/us/insurance-card/"/>
-    <hyperlink ref="B7" r:id="rId2" location="" tooltip="" display="http://www.hl7.org/Special/Committees/claims"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2591,57 +2369,57 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="71" customWidth="1"/>
-    <col min="2" max="2" width="21.1719" style="71" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="71" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="71" customWidth="1"/>
     <col min="3" max="3" width="96.5" style="71" customWidth="1"/>
-    <col min="4" max="4" width="25.3516" style="71" customWidth="1"/>
-    <col min="5" max="5" width="12.8516" style="71" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="71" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="71" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="71" customWidth="1"/>
-    <col min="7" max="7" width="18.8516" style="71" customWidth="1"/>
-    <col min="8" max="8" width="88.8516" style="71" customWidth="1"/>
-    <col min="9" max="9" width="82.6719" style="71" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="71" customWidth="1"/>
+    <col min="8" max="8" width="88.83203125" style="71" customWidth="1"/>
+    <col min="9" max="9" width="82.6640625" style="71" customWidth="1"/>
     <col min="10" max="10" width="83.5" style="71" customWidth="1"/>
-    <col min="11" max="16" width="8.85156" style="71" customWidth="1"/>
-    <col min="17" max="16384" width="8.85156" style="71" customWidth="1"/>
+    <col min="11" max="17" width="8.83203125" style="71" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="8">
-        <v>214</v>
-      </c>
-      <c r="B1" t="s" s="33">
-        <v>108</v>
-      </c>
-      <c r="C1" t="s" s="33">
-        <v>111</v>
-      </c>
-      <c r="D1" t="s" s="33">
-        <v>215</v>
-      </c>
-      <c r="E1" t="s" s="33">
-        <v>216</v>
-      </c>
-      <c r="F1" t="s" s="33">
-        <v>217</v>
-      </c>
-      <c r="G1" t="s" s="33">
-        <v>218</v>
-      </c>
-      <c r="H1" t="s" s="33">
+    <row r="1" spans="1:16" ht="18" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s" s="33">
+      <c r="I1" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="J1" t="s" s="33">
-        <v>127</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -2650,7 +2428,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" ht="82" customHeight="1">
+    <row r="2" spans="1:16" ht="82" customHeight="1">
       <c r="A2" s="22"/>
       <c r="B2" s="72"/>
       <c r="C2" s="73"/>
@@ -2668,7 +2446,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:16" ht="16" customHeight="1">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="75"/>
@@ -2686,7 +2464,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:16" ht="16" customHeight="1">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="75"/>
@@ -2704,7 +2482,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:16" ht="16" customHeight="1">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="75"/>
@@ -2722,7 +2500,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:16" ht="16" customHeight="1">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="75"/>
@@ -2740,7 +2518,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:16" ht="16" customHeight="1">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="75"/>
@@ -2758,7 +2536,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:16" ht="16" customHeight="1">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="75"/>
@@ -2776,7 +2554,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:16" ht="16" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="75"/>
@@ -2794,7 +2572,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:16" ht="16" customHeight="1">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="75"/>
@@ -2812,7 +2590,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
+    <row r="11" spans="1:16" ht="16" customHeight="1">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="75"/>
@@ -2830,7 +2608,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
+    <row r="12" spans="1:16" ht="16" customHeight="1">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="75"/>
@@ -2848,7 +2626,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
+    <row r="13" spans="1:16" ht="16" customHeight="1">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -2866,7 +2644,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
+    <row r="14" spans="1:16" ht="16" customHeight="1">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -2884,7 +2662,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
+    <row r="15" spans="1:16" ht="16" customHeight="1">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -2902,7 +2680,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
+    <row r="16" spans="1:16" ht="16" customHeight="1">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -2920,7 +2698,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
+    <row r="17" spans="1:16" ht="16" customHeight="1">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -2938,7 +2716,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
+    <row r="18" spans="1:16" ht="16" customHeight="1">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -2956,7 +2734,7 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
+    <row r="19" spans="1:16" ht="16" customHeight="1">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -2974,7 +2752,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
+    <row r="20" spans="1:16" ht="16" customHeight="1">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -2992,7 +2770,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" ht="16" customHeight="1">
+    <row r="21" spans="1:16" ht="16" customHeight="1">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -3010,7 +2788,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" ht="16" customHeight="1">
+    <row r="22" spans="1:16" ht="16" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -3028,7 +2806,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
+    <row r="23" spans="1:16" ht="16" customHeight="1">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -3046,7 +2824,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
+    <row r="24" spans="1:16" ht="16" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -3064,7 +2842,7 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" ht="16" customHeight="1">
+    <row r="25" spans="1:16" ht="16" customHeight="1">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -3082,7 +2860,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" ht="16" customHeight="1">
+    <row r="26" spans="1:16" ht="16" customHeight="1">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -3100,7 +2878,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" ht="16" customHeight="1">
+    <row r="27" spans="1:16" ht="16" customHeight="1">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -3118,7 +2896,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" ht="16" customHeight="1">
+    <row r="28" spans="1:16" ht="16" customHeight="1">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -3136,7 +2914,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" ht="16" customHeight="1">
+    <row r="29" spans="1:16" ht="16" customHeight="1">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -3154,7 +2932,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" ht="16" customHeight="1">
+    <row r="30" spans="1:16" ht="16" customHeight="1">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -3172,7 +2950,7 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" ht="16" customHeight="1">
+    <row r="31" spans="1:16" ht="16" customHeight="1">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -3190,7 +2968,7 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" ht="16" customHeight="1">
+    <row r="32" spans="1:16" ht="16" customHeight="1">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -3208,7 +2986,7 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" ht="16" customHeight="1">
+    <row r="33" spans="1:16" ht="16" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -3226,7 +3004,7 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" ht="16" customHeight="1">
+    <row r="34" spans="1:16" ht="16" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -3244,7 +3022,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" ht="16" customHeight="1">
+    <row r="35" spans="1:16" ht="16" customHeight="1">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -3262,7 +3040,7 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" ht="16" customHeight="1">
+    <row r="36" spans="1:16" ht="16" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -3280,7 +3058,7 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" ht="16" customHeight="1">
+    <row r="37" spans="1:16" ht="16" customHeight="1">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -3298,7 +3076,7 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" ht="16" customHeight="1">
+    <row r="38" spans="1:16" ht="16" customHeight="1">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -3316,7 +3094,7 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
     </row>
-    <row r="39" ht="16" customHeight="1">
+    <row r="39" spans="1:16" ht="16" customHeight="1">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -3334,7 +3112,7 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
     </row>
-    <row r="40" ht="16" customHeight="1">
+    <row r="40" spans="1:16" ht="16" customHeight="1">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -3352,7 +3130,7 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
     </row>
-    <row r="41" ht="16" customHeight="1">
+    <row r="41" spans="1:16" ht="16" customHeight="1">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -3370,7 +3148,7 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
-    <row r="42" ht="16" customHeight="1">
+    <row r="42" spans="1:16" ht="16" customHeight="1">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -3388,7 +3166,7 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
     </row>
-    <row r="43" ht="16" customHeight="1">
+    <row r="43" spans="1:16" ht="16" customHeight="1">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -3406,7 +3184,7 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
     </row>
-    <row r="44" ht="16" customHeight="1">
+    <row r="44" spans="1:16" ht="16" customHeight="1">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -3424,7 +3202,7 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
     </row>
-    <row r="45" ht="16" customHeight="1">
+    <row r="45" spans="1:16" ht="16" customHeight="1">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -3442,7 +3220,7 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
     </row>
-    <row r="46" ht="16" customHeight="1">
+    <row r="46" spans="1:16" ht="16" customHeight="1">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -3460,7 +3238,7 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
     </row>
-    <row r="47" ht="16" customHeight="1">
+    <row r="47" spans="1:16" ht="16" customHeight="1">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -3478,7 +3256,7 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
     </row>
-    <row r="48" ht="16" customHeight="1">
+    <row r="48" spans="1:16" ht="16" customHeight="1">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -3496,7 +3274,7 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
     </row>
-    <row r="49" ht="16" customHeight="1">
+    <row r="49" spans="1:16" ht="16" customHeight="1">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -3514,7 +3292,7 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
     </row>
-    <row r="50" ht="16" customHeight="1">
+    <row r="50" spans="1:16" ht="16" customHeight="1">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -3532,7 +3310,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
     </row>
-    <row r="51" ht="16" customHeight="1">
+    <row r="51" spans="1:16" ht="16" customHeight="1">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -3550,7 +3328,7 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
     </row>
-    <row r="52" ht="16" customHeight="1">
+    <row r="52" spans="1:16" ht="16" customHeight="1">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -3568,7 +3346,7 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
     </row>
-    <row r="53" ht="16" customHeight="1">
+    <row r="53" spans="1:16" ht="16" customHeight="1">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -3586,7 +3364,7 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
     </row>
-    <row r="54" ht="16" customHeight="1">
+    <row r="54" spans="1:16" ht="16" customHeight="1">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -3604,7 +3382,7 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
     </row>
-    <row r="55" ht="16" customHeight="1">
+    <row r="55" spans="1:16" ht="16" customHeight="1">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -3622,7 +3400,7 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
     </row>
-    <row r="56" ht="16" customHeight="1">
+    <row r="56" spans="1:16" ht="16" customHeight="1">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -3640,7 +3418,7 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
     </row>
-    <row r="57" ht="16" customHeight="1">
+    <row r="57" spans="1:16" ht="16" customHeight="1">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -3658,7 +3436,7 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
     </row>
-    <row r="58" ht="16" customHeight="1">
+    <row r="58" spans="1:16" ht="16" customHeight="1">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -3676,7 +3454,7 @@
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" ht="16" customHeight="1">
+    <row r="59" spans="1:16" ht="16" customHeight="1">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -3694,7 +3472,7 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" ht="16" customHeight="1">
+    <row r="60" spans="1:16" ht="16" customHeight="1">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -3712,7 +3490,7 @@
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" ht="16" customHeight="1">
+    <row r="61" spans="1:16" ht="16" customHeight="1">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -3730,7 +3508,7 @@
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
     </row>
-    <row r="62" ht="16" customHeight="1">
+    <row r="62" spans="1:16" ht="16" customHeight="1">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -3748,7 +3526,7 @@
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
     </row>
-    <row r="63" ht="16" customHeight="1">
+    <row r="63" spans="1:16" ht="16" customHeight="1">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -3766,7 +3544,7 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" ht="16" customHeight="1">
+    <row r="64" spans="1:16" ht="16" customHeight="1">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -3784,7 +3562,7 @@
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
     </row>
-    <row r="65" ht="16" customHeight="1">
+    <row r="65" spans="1:16" ht="16" customHeight="1">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -3802,7 +3580,7 @@
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
     </row>
-    <row r="66" ht="16" customHeight="1">
+    <row r="66" spans="1:16" ht="16" customHeight="1">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -3820,7 +3598,7 @@
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
     </row>
-    <row r="67" ht="16" customHeight="1">
+    <row r="67" spans="1:16" ht="16" customHeight="1">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
@@ -3838,7 +3616,7 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
     </row>
-    <row r="68" ht="16" customHeight="1">
+    <row r="68" spans="1:16" ht="16" customHeight="1">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -3856,7 +3634,7 @@
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
     </row>
-    <row r="69" ht="16" customHeight="1">
+    <row r="69" spans="1:16" ht="16" customHeight="1">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -3874,7 +3652,7 @@
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
     </row>
-    <row r="70" ht="16" customHeight="1">
+    <row r="70" spans="1:16" ht="16" customHeight="1">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -3892,7 +3670,7 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
     </row>
-    <row r="71" ht="16" customHeight="1">
+    <row r="71" spans="1:16" ht="16" customHeight="1">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="77"/>
@@ -3910,7 +3688,7 @@
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
     </row>
-    <row r="72" ht="16" customHeight="1">
+    <row r="72" spans="1:16" ht="16" customHeight="1">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
@@ -3928,7 +3706,7 @@
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
     </row>
-    <row r="73" ht="16" customHeight="1">
+    <row r="73" spans="1:16" ht="16" customHeight="1">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -3946,7 +3724,7 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
     </row>
-    <row r="74" ht="16" customHeight="1">
+    <row r="74" spans="1:16" ht="16" customHeight="1">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -3964,7 +3742,7 @@
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
     </row>
-    <row r="75" ht="16" customHeight="1">
+    <row r="75" spans="1:16" ht="16" customHeight="1">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -3982,7 +3760,7 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
     </row>
-    <row r="76" ht="16" customHeight="1">
+    <row r="76" spans="1:16" ht="16" customHeight="1">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -4000,7 +3778,7 @@
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
     </row>
-    <row r="77" ht="16" customHeight="1">
+    <row r="77" spans="1:16" ht="16" customHeight="1">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -4018,7 +3796,7 @@
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
     </row>
-    <row r="78" ht="20.25" customHeight="1">
+    <row r="78" spans="1:16" ht="20.25" customHeight="1">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -4036,7 +3814,7 @@
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
     </row>
-    <row r="79" ht="16" customHeight="1">
+    <row r="79" spans="1:16" ht="16" customHeight="1">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -4054,7 +3832,7 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
     </row>
-    <row r="80" ht="20.25" customHeight="1">
+    <row r="80" spans="1:16" ht="20.25" customHeight="1">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -4072,7 +3850,7 @@
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
     </row>
-    <row r="81" ht="16" customHeight="1">
+    <row r="81" spans="1:16" ht="16" customHeight="1">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -4090,7 +3868,7 @@
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
     </row>
-    <row r="82" ht="20.25" customHeight="1">
+    <row r="82" spans="1:16" ht="20.25" customHeight="1">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -4108,7 +3886,7 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
     </row>
-    <row r="83" ht="16" customHeight="1">
+    <row r="83" spans="1:16" ht="16" customHeight="1">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -4128,7 +3906,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4136,124 +3914,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.6719" style="7" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="95.5" style="7" customWidth="1"/>
-    <col min="3" max="5" width="8.85156" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="7" customWidth="1"/>
+    <col min="3" max="6" width="8.83203125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="8">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="8">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="8">
+    <row r="2" spans="1:5" ht="16" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s" s="9">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="8">
+    <row r="3" spans="1:5" ht="16" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="B3" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="8">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="8">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="257" customHeight="1">
-      <c r="A6" t="s" s="8">
+    <row r="6" spans="1:5" ht="257" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B6" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="8">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s" s="8">
+      <c r="B7" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="8">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="351.75" customHeight="1">
-      <c r="A9" t="s" s="8">
+    <row r="9" spans="1:5" ht="351.75" customHeight="1">
+      <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s" s="11">
-        <v>40</v>
+      <c r="B9" s="78" t="s">
+        <v>160</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="103.5" customHeight="1">
-      <c r="A10" t="s" s="8">
+    <row r="10" spans="1:5" ht="103.5" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" t="s" s="11">
-        <v>42</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4261,10 +4041,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" location="" tooltip="" display="http://hl7.org/fhir/us/insurance-card/ImplementationGuide/hl7.fhir.us.insurance-card"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4272,85 +4052,85 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="12" customWidth="1"/>
+    <col min="1" max="6" width="8.83203125" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4359,7 +4139,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4367,96 +4147,96 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="114.672" style="13" customWidth="1"/>
+    <col min="1" max="1" width="114.6640625" style="13" customWidth="1"/>
     <col min="2" max="2" width="60.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.1719" style="13" customWidth="1"/>
-    <col min="4" max="4" width="31.1719" style="13" customWidth="1"/>
-    <col min="5" max="6" width="8.85156" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="8.85156" style="13" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" style="13" customWidth="1"/>
+    <col min="5" max="7" width="8.83203125" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" customHeight="1">
-      <c r="A1" t="s" s="14">
+    <row r="1" spans="1:6" ht="26" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s" s="8">
+      <c r="C1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s" s="8">
+      <c r="D1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s" s="8">
+      <c r="E1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="19" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" ht="19" customHeight="1">
-      <c r="A2" t="s" s="8">
+      <c r="B2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s" s="15">
+      <c r="C2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s" s="15">
+      <c r="D2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s" s="15">
+      <c r="E2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="b" s="4">
+    </row>
+    <row r="3" spans="1:6" ht="19" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="s" s="16">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" ht="19" customHeight="1">
-      <c r="A3" t="s" s="8">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s" s="15">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s" s="15">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s" s="15">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="19" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E3" t="b" s="4">
+      <c r="B4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" ht="19" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s" s="15">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s" s="15">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s" s="15">
-        <v>60</v>
-      </c>
-      <c r="E4" t="b" s="4">
-        <v>1</v>
-      </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" ht="19" customHeight="1">
+    <row r="5" spans="1:6" ht="19" customHeight="1">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -4464,7 +4244,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" ht="19" customHeight="1">
+    <row r="6" spans="1:6" ht="19" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -4472,7 +4252,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" ht="19" customHeight="1">
+    <row r="7" spans="1:6" ht="19" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -4480,7 +4260,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" ht="19" customHeight="1">
+    <row r="8" spans="1:6" ht="19" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -4488,7 +4268,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" ht="19" customHeight="1">
+    <row r="9" spans="1:6" ht="19" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -4496,7 +4276,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" ht="19" customHeight="1">
+    <row r="10" spans="1:6" ht="19" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -4506,12 +4286,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display="http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Coverage"/>
-    <hyperlink ref="A3" r:id="rId2" location="" tooltip="" display="http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Organization"/>
-    <hyperlink ref="A4" r:id="rId3" location="" tooltip="" display="http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Patient"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4519,109 +4299,114 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="25.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="25.3516" style="19" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="19" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="19" customWidth="1"/>
-    <col min="4" max="4" width="11.3516" style="19" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="19" customWidth="1"/>
     <col min="5" max="12" width="17.5" style="19" customWidth="1"/>
     <col min="13" max="13" width="20.5" style="19" customWidth="1"/>
     <col min="14" max="17" width="17.5" style="19" customWidth="1"/>
     <col min="18" max="19" width="20.5" style="19" customWidth="1"/>
-    <col min="20" max="20" width="36.6719" style="19" customWidth="1"/>
-    <col min="21" max="23" width="38.8516" style="19" customWidth="1"/>
-    <col min="24" max="24" width="72.8516" style="19" customWidth="1"/>
-    <col min="25" max="16384" width="8.85156" style="19" customWidth="1"/>
+    <col min="20" max="20" width="36.6640625" style="19" customWidth="1"/>
+    <col min="21" max="23" width="38.83203125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="72.83203125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" style="19" customWidth="1"/>
+    <col min="26" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" t="s" s="8">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s" s="8">
+      <c r="C1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s" s="11">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s" s="8">
+      <c r="E1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s" s="8">
+      <c r="F1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s" s="8">
+      <c r="G1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s" s="8">
+      <c r="H1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s" s="8">
+      <c r="I1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s" s="8">
+      <c r="J1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s" s="8">
+      <c r="K1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K1" t="s" s="8">
+      <c r="L1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L1" t="s" s="8">
+      <c r="M1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="M1" t="s" s="8">
+      <c r="N1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="N1" t="s" s="8">
+      <c r="O1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="O1" t="s" s="8">
+      <c r="P1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="P1" t="s" s="8">
+      <c r="Q1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" t="s" s="8">
+      <c r="R1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="R1" t="s" s="8">
+      <c r="S1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="S1" t="s" s="8">
+      <c r="T1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="T1" t="s" s="20">
+      <c r="U1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="U1" t="s" s="20">
+      <c r="V1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="V1" t="s" s="20">
+      <c r="W1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="W1" t="s" s="20">
+      <c r="X1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="X1" t="s" s="8">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" ht="21" customHeight="1">
-      <c r="A2" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s" s="8">
+    </row>
+    <row r="2" spans="1:24" ht="21" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="B2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>161</v>
+      </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
@@ -4636,26 +4421,26 @@
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
-      <c r="R2" t="s" s="8">
+      <c r="R2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="23" t="s">
         <v>84</v>
-      </c>
-      <c r="S2" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="T2" t="s" s="23">
-        <v>85</v>
       </c>
       <c r="U2" s="24"/>
       <c r="V2" s="25"/>
       <c r="W2" s="25"/>
       <c r="X2" s="22"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="8">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s" s="8">
-        <v>52</v>
+    <row r="3" spans="1:24" ht="16" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
@@ -4672,11 +4457,11 @@
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
-      <c r="R3" t="s" s="8">
-        <v>84</v>
-      </c>
-      <c r="S3" t="s" s="8">
-        <v>52</v>
+      <c r="R3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
@@ -4684,12 +4469,12 @@
       <c r="W3" s="26"/>
       <c r="X3" s="22"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s" s="8">
-        <v>52</v>
+    <row r="4" spans="1:24" ht="16" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
@@ -4706,11 +4491,11 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
-      <c r="R4" t="s" s="8">
-        <v>84</v>
-      </c>
-      <c r="S4" t="s" s="8">
-        <v>52</v>
+      <c r="R4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
@@ -4718,7 +4503,7 @@
       <c r="W4" s="26"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" ht="25.5" customHeight="1">
+    <row r="5" spans="1:24" ht="25.5" customHeight="1">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="21"/>
@@ -4744,7 +4529,7 @@
       <c r="W5" s="21"/>
       <c r="X5" s="22"/>
     </row>
-    <row r="6" ht="25.5" customHeight="1">
+    <row r="6" spans="1:24" ht="25.5" customHeight="1">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="21"/>
@@ -4770,7 +4555,7 @@
       <c r="W6" s="21"/>
       <c r="X6" s="22"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
+    <row r="7" spans="1:24" ht="13.5" customHeight="1">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="21"/>
@@ -4796,7 +4581,7 @@
       <c r="W7" s="21"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
+    <row r="8" spans="1:24" ht="13.5" customHeight="1">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="21"/>
@@ -4822,7 +4607,7 @@
       <c r="W8" s="21"/>
       <c r="X8" s="22"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" spans="1:24" ht="13.5" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="21"/>
@@ -4848,7 +4633,7 @@
       <c r="W9" s="21"/>
       <c r="X9" s="22"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
+    <row r="10" spans="1:24" ht="13.5" customHeight="1">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="21"/>
@@ -4874,7 +4659,7 @@
       <c r="W10" s="21"/>
       <c r="X10" s="22"/>
     </row>
-    <row r="11" ht="13.55" customHeight="1">
+    <row r="11" spans="1:24" ht="13.5" customHeight="1">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="21"/>
@@ -4900,7 +4685,7 @@
       <c r="W11" s="21"/>
       <c r="X11" s="22"/>
     </row>
-    <row r="12" ht="13.55" customHeight="1">
+    <row r="12" spans="1:24" ht="13.5" customHeight="1">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="21"/>
@@ -4926,7 +4711,7 @@
       <c r="W12" s="21"/>
       <c r="X12" s="22"/>
     </row>
-    <row r="13" ht="13.55" customHeight="1">
+    <row r="13" spans="1:24" ht="13.5" customHeight="1">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="21"/>
@@ -4952,7 +4737,7 @@
       <c r="W13" s="21"/>
       <c r="X13" s="22"/>
     </row>
-    <row r="14" ht="13.55" customHeight="1">
+    <row r="14" spans="1:24" ht="13.5" customHeight="1">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="21"/>
@@ -4978,7 +4763,7 @@
       <c r="W14" s="21"/>
       <c r="X14" s="22"/>
     </row>
-    <row r="15" ht="13.55" customHeight="1">
+    <row r="15" spans="1:24" ht="13.5" customHeight="1">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="21"/>
@@ -5004,7 +4789,7 @@
       <c r="W15" s="21"/>
       <c r="X15" s="22"/>
     </row>
-    <row r="16" ht="13.55" customHeight="1">
+    <row r="16" spans="1:24" ht="13.5" customHeight="1">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="21"/>
@@ -5030,7 +4815,7 @@
       <c r="W16" s="21"/>
       <c r="X16" s="22"/>
     </row>
-    <row r="17" ht="13.55" customHeight="1">
+    <row r="17" spans="1:24" ht="13.5" customHeight="1">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="21"/>
@@ -5056,7 +4841,7 @@
       <c r="W17" s="21"/>
       <c r="X17" s="22"/>
     </row>
-    <row r="18" ht="13.55" customHeight="1">
+    <row r="18" spans="1:24" ht="13.5" customHeight="1">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="21"/>
@@ -5082,7 +4867,7 @@
       <c r="W18" s="21"/>
       <c r="X18" s="22"/>
     </row>
-    <row r="19" ht="13.55" customHeight="1">
+    <row r="19" spans="1:24" ht="13.5" customHeight="1">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="21"/>
@@ -5108,7 +4893,7 @@
       <c r="W19" s="21"/>
       <c r="X19" s="22"/>
     </row>
-    <row r="20" ht="13.55" customHeight="1">
+    <row r="20" spans="1:24" ht="13.5" customHeight="1">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="21"/>
@@ -5134,7 +4919,7 @@
       <c r="W20" s="21"/>
       <c r="X20" s="22"/>
     </row>
-    <row r="21" ht="13.55" customHeight="1">
+    <row r="21" spans="1:24" ht="13.5" customHeight="1">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="21"/>
@@ -5160,7 +4945,7 @@
       <c r="W21" s="21"/>
       <c r="X21" s="22"/>
     </row>
-    <row r="22" ht="13.55" customHeight="1">
+    <row r="22" spans="1:24" ht="13.5" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="21"/>
@@ -5186,7 +4971,7 @@
       <c r="W22" s="21"/>
       <c r="X22" s="22"/>
     </row>
-    <row r="23" ht="13.55" customHeight="1">
+    <row r="23" spans="1:24" ht="13.5" customHeight="1">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="21"/>
@@ -5212,7 +4997,7 @@
       <c r="W23" s="21"/>
       <c r="X23" s="22"/>
     </row>
-    <row r="24" ht="13.55" customHeight="1">
+    <row r="24" spans="1:24" ht="13.5" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="21"/>
@@ -5238,7 +5023,7 @@
       <c r="W24" s="21"/>
       <c r="X24" s="22"/>
     </row>
-    <row r="25" ht="13.55" customHeight="1">
+    <row r="25" spans="1:24" ht="13.5" customHeight="1">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="21"/>
@@ -5264,7 +5049,7 @@
       <c r="W25" s="21"/>
       <c r="X25" s="22"/>
     </row>
-    <row r="26" ht="13.55" customHeight="1">
+    <row r="26" spans="1:24" ht="13.5" customHeight="1">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="21"/>
@@ -5290,7 +5075,7 @@
       <c r="W26" s="21"/>
       <c r="X26" s="22"/>
     </row>
-    <row r="27" ht="13.55" customHeight="1">
+    <row r="27" spans="1:24" ht="13.5" customHeight="1">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="21"/>
@@ -5316,7 +5101,7 @@
       <c r="W27" s="21"/>
       <c r="X27" s="22"/>
     </row>
-    <row r="28" ht="13.55" customHeight="1">
+    <row r="28" spans="1:24" ht="13.5" customHeight="1">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="21"/>
@@ -5342,7 +5127,7 @@
       <c r="W28" s="21"/>
       <c r="X28" s="22"/>
     </row>
-    <row r="29" ht="13.55" customHeight="1">
+    <row r="29" spans="1:24" ht="13.5" customHeight="1">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="21"/>
@@ -5368,7 +5153,7 @@
       <c r="W29" s="21"/>
       <c r="X29" s="22"/>
     </row>
-    <row r="30" ht="13.55" customHeight="1">
+    <row r="30" spans="1:24" ht="13.5" customHeight="1">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="21"/>
@@ -5394,7 +5179,7 @@
       <c r="W30" s="21"/>
       <c r="X30" s="22"/>
     </row>
-    <row r="31" ht="13.55" customHeight="1">
+    <row r="31" spans="1:24" ht="13.5" customHeight="1">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="21"/>
@@ -5420,7 +5205,7 @@
       <c r="W31" s="21"/>
       <c r="X31" s="22"/>
     </row>
-    <row r="32" ht="13.55" customHeight="1">
+    <row r="32" spans="1:24" ht="13.5" customHeight="1">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="21"/>
@@ -5446,7 +5231,7 @@
       <c r="W32" s="21"/>
       <c r="X32" s="22"/>
     </row>
-    <row r="33" ht="13.55" customHeight="1">
+    <row r="33" spans="1:24" ht="13.5" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="21"/>
@@ -5472,7 +5257,7 @@
       <c r="W33" s="21"/>
       <c r="X33" s="22"/>
     </row>
-    <row r="34" ht="13.55" customHeight="1">
+    <row r="34" spans="1:24" ht="13.5" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="21"/>
@@ -5498,7 +5283,7 @@
       <c r="W34" s="21"/>
       <c r="X34" s="22"/>
     </row>
-    <row r="35" ht="13.55" customHeight="1">
+    <row r="35" spans="1:24" ht="13.5" customHeight="1">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="21"/>
@@ -5524,7 +5309,7 @@
       <c r="W35" s="21"/>
       <c r="X35" s="22"/>
     </row>
-    <row r="36" ht="13.55" customHeight="1">
+    <row r="36" spans="1:24" ht="13.5" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="21"/>
@@ -5550,7 +5335,7 @@
       <c r="W36" s="21"/>
       <c r="X36" s="22"/>
     </row>
-    <row r="37" ht="25.5" customHeight="1">
+    <row r="37" spans="1:24" ht="25.5" customHeight="1">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="21"/>
@@ -5576,7 +5361,7 @@
       <c r="W37" s="27"/>
       <c r="X37" s="22"/>
     </row>
-    <row r="38" ht="13.55" customHeight="1">
+    <row r="38" spans="1:24" ht="13.5" customHeight="1">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="21"/>
@@ -5602,7 +5387,7 @@
       <c r="W38" s="21"/>
       <c r="X38" s="22"/>
     </row>
-    <row r="39" ht="13.55" customHeight="1">
+    <row r="39" spans="1:24" ht="13.5" customHeight="1">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="21"/>
@@ -5628,7 +5413,7 @@
       <c r="W39" s="21"/>
       <c r="X39" s="22"/>
     </row>
-    <row r="40" ht="25.5" customHeight="1">
+    <row r="40" spans="1:24" ht="25.5" customHeight="1">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="21"/>
@@ -5656,105 +5441,105 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="28" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="28" customWidth="1"/>
     <col min="2" max="2" width="13" style="28" customWidth="1"/>
-    <col min="3" max="3" width="23.6719" style="28" customWidth="1"/>
-    <col min="4" max="4" width="9.85156" style="28" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="28" customWidth="1"/>
     <col min="5" max="5" width="89" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="28" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C1" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="21"/>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5763,7 +5548,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5771,143 +5556,143 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.6719" style="29" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="29" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="29" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="29" customWidth="1"/>
-    <col min="4" max="4" width="21.6719" style="29" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="29" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="29" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="8">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="8">
-        <v>92</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="8">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="8">
+      <c r="B5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="C5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>97</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>98</v>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>99</v>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="8">
-        <v>100</v>
+    <row r="9" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="8">
-        <v>101</v>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="13.55" customHeight="1">
+    <row r="11" spans="1:5" ht="13.5" customHeight="1">
       <c r="A11" s="22"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="13.55" customHeight="1">
+    <row r="12" spans="1:5" ht="13.5" customHeight="1">
       <c r="A12" s="22"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5916,7 +5701,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5924,98 +5709,98 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.1719" style="30" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="30" customWidth="1"/>
-    <col min="3" max="3" width="51.1719" style="30" customWidth="1"/>
-    <col min="4" max="5" width="8.85156" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="30" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" style="30" customWidth="1"/>
+    <col min="4" max="6" width="8.83203125" style="30" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:5" ht="16" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C1" t="s" s="11">
-        <v>102</v>
+      <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="59.25" customHeight="1">
-      <c r="A2" t="s" s="2">
-        <v>103</v>
+    <row r="2" spans="1:5" ht="59.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="21"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="2">
-        <v>104</v>
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="21"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>105</v>
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="21"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>106</v>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="21"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6024,7 +5809,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6032,171 +5817,171 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="19" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="31" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="31" customWidth="1"/>
     <col min="2" max="2" width="43" style="31" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="13.6719" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="31" customWidth="1"/>
     <col min="5" max="5" width="9" style="31" customWidth="1"/>
     <col min="6" max="6" width="75.5" style="31" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.3516" style="31" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="31" customWidth="1"/>
     <col min="9" max="9" width="23.5" style="31" customWidth="1"/>
-    <col min="10" max="10" width="36.1719" style="31" customWidth="1"/>
-    <col min="11" max="11" width="17.6719" style="31" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="31" customWidth="1"/>
     <col min="12" max="12" width="22.5" style="31" customWidth="1"/>
-    <col min="13" max="13" width="12.6719" style="31" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="31" customWidth="1"/>
     <col min="14" max="14" width="15" style="31" customWidth="1"/>
-    <col min="15" max="15" width="16.3516" style="31" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="31" customWidth="1"/>
     <col min="16" max="16" width="18" style="31" customWidth="1"/>
     <col min="17" max="17" width="19" style="31" customWidth="1"/>
-    <col min="18" max="18" width="21.1719" style="31" customWidth="1"/>
-    <col min="19" max="19" width="17.6719" style="31" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="31" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="31" customWidth="1"/>
     <col min="20" max="20" width="15" style="31" customWidth="1"/>
-    <col min="21" max="21" width="13.6719" style="31" customWidth="1"/>
-    <col min="22" max="22" width="14.8516" style="31" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" style="31" customWidth="1"/>
+    <col min="22" max="22" width="14.83203125" style="31" customWidth="1"/>
     <col min="23" max="23" width="16" style="31" customWidth="1"/>
-    <col min="24" max="24" width="50.8516" style="31" customWidth="1"/>
-    <col min="25" max="25" width="68.6719" style="31" customWidth="1"/>
-    <col min="26" max="26" width="38.3516" style="31" customWidth="1"/>
-    <col min="27" max="27" width="24.3516" style="31" customWidth="1"/>
-    <col min="28" max="28" width="38.1719" style="31" customWidth="1"/>
-    <col min="29" max="29" width="8.85156" style="31" customWidth="1"/>
-    <col min="30" max="16384" width="8.85156" style="31" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" style="31" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" style="31" customWidth="1"/>
+    <col min="26" max="26" width="38.33203125" style="31" customWidth="1"/>
+    <col min="27" max="27" width="24.33203125" style="31" customWidth="1"/>
+    <col min="28" max="28" width="38.1640625" style="31" customWidth="1"/>
+    <col min="29" max="30" width="8.83203125" style="31" customWidth="1"/>
+    <col min="31" max="16384" width="8.83203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:29" ht="17" customHeight="1">
+      <c r="A1" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="C1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C1" t="s" s="33">
-        <v>88</v>
-      </c>
-      <c r="D1" t="s" s="33">
+      <c r="E1" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="E1" t="s" s="33">
+      <c r="F1" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="F1" t="s" s="34">
+      <c r="G1" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="G1" t="s" s="35">
+      <c r="H1" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="H1" t="s" s="35">
-        <v>97</v>
-      </c>
-      <c r="I1" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="J1" t="s" s="33">
+      <c r="K1" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="K1" t="s" s="33">
+      <c r="L1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="L1" t="s" s="33">
+      <c r="M1" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="M1" t="s" s="33">
+      <c r="N1" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="N1" t="s" s="33">
+      <c r="O1" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="O1" t="s" s="33">
+      <c r="P1" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="P1" t="s" s="33">
+      <c r="Q1" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="Q1" t="s" s="33">
+      <c r="R1" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="R1" t="s" s="33">
+      <c r="S1" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="S1" t="s" s="33">
+      <c r="T1" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="T1" t="s" s="33">
+      <c r="U1" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="U1" t="s" s="33">
-        <v>79</v>
-      </c>
-      <c r="V1" t="s" s="33">
-        <v>80</v>
-      </c>
-      <c r="W1" t="s" s="33">
+      <c r="X1" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="X1" t="s" s="33">
+      <c r="Y1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" t="s" s="33">
-        <v>33</v>
-      </c>
-      <c r="Z1" t="s" s="33">
+      <c r="AA1" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="AA1" t="s" s="20">
+      <c r="AB1" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" t="s" s="36">
-        <v>128</v>
-      </c>
       <c r="AC1" s="37"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
+    <row r="2" spans="1:29" ht="16" customHeight="1">
       <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="39">
+      <c r="B2" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="C2" t="s" s="39">
+      <c r="D2" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s" s="39">
-        <v>131</v>
-      </c>
-      <c r="E2" t="b" s="40">
+      <c r="E2" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="s" s="41">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
+      <c r="F2" s="41" t="str">
+        <f t="shared" ref="F2:F8" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example category search</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G2" t="s" s="42">
-        <v>133</v>
-      </c>
-      <c r="H2" t="s" s="42">
-        <v>133</v>
-      </c>
-      <c r="I2" t="s" s="42">
-        <v>134</v>
-      </c>
-      <c r="J2" t="s" s="39">
-        <f>B2&amp;"."&amp;C2</f>
-        <v>135</v>
-      </c>
-      <c r="K2" t="s" s="39">
-        <v>133</v>
+      <c r="J2" s="39" t="str">
+        <f t="shared" ref="J2:J8" si="1">B2&amp;"."&amp;C2</f>
+        <v>!EXAMPLE CATEGORY SEARCH.category</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>131</v>
       </c>
       <c r="L2" s="43"/>
-      <c r="M2" t="s" s="39">
-        <v>133</v>
+      <c r="M2" s="39" t="s">
+        <v>131</v>
       </c>
       <c r="N2" s="43"/>
       <c r="O2" s="43"/>
@@ -6212,51 +5997,51 @@
       <c r="Y2" s="44"/>
       <c r="Z2" s="44"/>
       <c r="AA2" s="45"/>
-      <c r="AB2" t="s" s="46">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B2)&amp;"-"&amp;C2&amp;".html")</f>
-        <v>136</v>
+      <c r="AB2" s="46" t="str">
+        <f t="shared" ref="AB2:AB8" si="2">"SearchParameter-us-core-"&amp;LOWER((B2)&amp;"-"&amp;C2&amp;".html")</f>
+        <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
       <c r="AC2" s="47"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:29" ht="15" customHeight="1">
       <c r="A3" s="38">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="48">
-        <v>137</v>
-      </c>
-      <c r="C3" t="s" s="48">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s" s="48">
-        <v>52</v>
-      </c>
-      <c r="E3" t="b" s="49">
+      <c r="B3" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="s" s="50">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B3)</f>
-        <v>138</v>
-      </c>
-      <c r="G3" t="s" s="46">
-        <v>133</v>
-      </c>
-      <c r="H3" t="s" s="46">
-        <v>133</v>
-      </c>
-      <c r="I3" t="s" s="46">
-        <v>134</v>
-      </c>
-      <c r="J3" t="s" s="48">
-        <f>B3&amp;"."&amp;C3</f>
-        <v>139</v>
-      </c>
-      <c r="K3" t="s" s="48">
-        <v>133</v>
+      <c r="F3" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example code search</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>!EXAMPLE CODE SEARCH.code</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>131</v>
       </c>
       <c r="L3" s="51"/>
-      <c r="M3" t="s" s="48">
-        <v>133</v>
+      <c r="M3" s="48" t="s">
+        <v>131</v>
       </c>
       <c r="N3" s="51"/>
       <c r="O3" s="51"/>
@@ -6272,54 +6057,54 @@
       <c r="Y3" s="52"/>
       <c r="Z3" s="52"/>
       <c r="AA3" s="53"/>
-      <c r="AB3" t="s" s="46">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B3)&amp;"-"&amp;C3&amp;".html")</f>
-        <v>140</v>
+      <c r="AB3" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
       <c r="AC3" s="47"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:29" ht="15" customHeight="1">
       <c r="A4" s="38">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="48">
-        <v>141</v>
-      </c>
-      <c r="C4" t="s" s="48">
-        <v>142</v>
-      </c>
-      <c r="D4" t="s" s="48">
-        <v>52</v>
-      </c>
-      <c r="E4" t="b" s="49">
+      <c r="B4" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="s" s="50">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B4)</f>
-        <v>143</v>
-      </c>
-      <c r="G4" t="s" s="46">
-        <v>133</v>
-      </c>
-      <c r="H4" t="s" s="46">
-        <v>133</v>
-      </c>
-      <c r="I4" t="s" s="46">
-        <v>142</v>
-      </c>
-      <c r="J4" t="s" s="48">
-        <f>B4&amp;"."&amp;C4</f>
-        <v>144</v>
-      </c>
-      <c r="K4" t="s" s="48">
-        <v>133</v>
+      <c r="F4" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example date search</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>!EXAMPLE DATE SEARCH.date</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>131</v>
       </c>
       <c r="L4" s="51"/>
-      <c r="M4" t="s" s="48">
-        <v>133</v>
-      </c>
-      <c r="N4" t="s" s="48">
-        <v>96</v>
+      <c r="M4" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>95</v>
       </c>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
@@ -6334,51 +6119,51 @@
       <c r="Y4" s="51"/>
       <c r="Z4" s="51"/>
       <c r="AA4" s="53"/>
-      <c r="AB4" t="s" s="46">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B4)&amp;"-"&amp;C4&amp;".html")</f>
-        <v>145</v>
+      <c r="AB4" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
       <c r="AC4" s="47"/>
     </row>
-    <row r="5" ht="61" customHeight="1">
+    <row r="5" spans="1:29" ht="61" customHeight="1">
       <c r="A5" s="38">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="48">
-        <v>146</v>
-      </c>
-      <c r="C5" t="s" s="48">
-        <v>147</v>
-      </c>
-      <c r="D5" t="s" s="48">
-        <v>52</v>
-      </c>
-      <c r="E5" t="b" s="49">
+      <c r="B5" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="F5" t="s" s="50">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B5)</f>
-        <v>148</v>
-      </c>
-      <c r="G5" t="s" s="46">
-        <v>133</v>
-      </c>
-      <c r="H5" t="s" s="46">
-        <v>133</v>
-      </c>
-      <c r="I5" t="s" s="46">
-        <v>149</v>
-      </c>
-      <c r="J5" t="s" s="48">
-        <f>B5&amp;"."&amp;C5</f>
-        <v>150</v>
-      </c>
-      <c r="K5" t="s" s="48">
-        <v>133</v>
+      <c r="F5" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example patient search</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>!EXAMPLE PATIENT SEARCH.patient</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>131</v>
       </c>
       <c r="L5" s="51"/>
-      <c r="M5" t="s" s="48">
-        <v>133</v>
+      <c r="M5" s="48" t="s">
+        <v>131</v>
       </c>
       <c r="N5" s="51"/>
       <c r="O5" s="51"/>
@@ -6391,60 +6176,60 @@
       <c r="V5" s="51"/>
       <c r="W5" s="51"/>
       <c r="X5" s="51"/>
-      <c r="Y5" t="s" s="48">
+      <c r="Y5" s="48" t="str">
         <f>"support searching for all "&amp;LOWER(B5)&amp;"s for a patient"</f>
-        <v>151</v>
+        <v>support searching for all !example patient searchs for a patient</v>
       </c>
       <c r="Z5" s="52"/>
-      <c r="AA5" t="s" s="54">
+      <c r="AA5" s="54" t="str">
         <f>"Fetches a bundle of all "&amp;B5&amp;" resources for the specified patient"</f>
-        <v>152</v>
-      </c>
-      <c r="AB5" t="s" s="46">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B5)&amp;"-"&amp;C5&amp;".html")</f>
-        <v>153</v>
+        <v>Fetches a bundle of all !EXAMPLE PATIENT SEARCH resources for the specified patient</v>
+      </c>
+      <c r="AB5" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
       <c r="AC5" s="47"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:29" ht="15" customHeight="1">
       <c r="A6" s="38">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="48">
-        <v>154</v>
-      </c>
-      <c r="C6" t="s" s="48">
-        <v>155</v>
-      </c>
-      <c r="D6" t="s" s="48">
-        <v>52</v>
-      </c>
-      <c r="E6" t="b" s="49">
+      <c r="B6" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="s" s="50">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B6)</f>
-        <v>156</v>
-      </c>
-      <c r="G6" t="s" s="46">
-        <v>133</v>
-      </c>
-      <c r="H6" t="s" s="46">
-        <v>133</v>
-      </c>
-      <c r="I6" t="s" s="46">
-        <v>134</v>
-      </c>
-      <c r="J6" t="s" s="48">
-        <f>B6&amp;"."&amp;C6</f>
-        <v>157</v>
-      </c>
-      <c r="K6" t="s" s="48">
-        <v>133</v>
+      <c r="F6" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example status search</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>!EXAMPLE STATUS SEARCH.status</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>131</v>
       </c>
       <c r="L6" s="51"/>
-      <c r="M6" t="s" s="48">
-        <v>133</v>
+      <c r="M6" s="48" t="s">
+        <v>131</v>
       </c>
       <c r="N6" s="51"/>
       <c r="O6" s="51"/>
@@ -6460,51 +6245,51 @@
       <c r="Y6" s="52"/>
       <c r="Z6" s="52"/>
       <c r="AA6" s="53"/>
-      <c r="AB6" t="s" s="46">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B6)&amp;"-"&amp;C6&amp;".html")</f>
-        <v>158</v>
+      <c r="AB6" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
       <c r="AC6" s="47"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:29" ht="15" customHeight="1">
       <c r="A7" s="38">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="48">
-        <v>159</v>
-      </c>
-      <c r="C7" t="s" s="55">
-        <v>160</v>
-      </c>
-      <c r="D7" t="s" s="48">
-        <v>52</v>
-      </c>
-      <c r="E7" t="b" s="49">
+      <c r="B7" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="s" s="50">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B7)</f>
-        <v>161</v>
-      </c>
-      <c r="G7" t="s" s="46">
-        <v>133</v>
-      </c>
-      <c r="H7" t="s" s="46">
-        <v>133</v>
-      </c>
-      <c r="I7" t="s" s="46">
-        <v>162</v>
-      </c>
-      <c r="J7" t="s" s="48">
-        <f>B7&amp;"."&amp;C7</f>
-        <v>163</v>
-      </c>
-      <c r="K7" t="s" s="48">
-        <v>133</v>
+      <c r="F7" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!patient</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>!Patient.address</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>131</v>
       </c>
       <c r="L7" s="51"/>
-      <c r="M7" t="s" s="48">
-        <v>133</v>
+      <c r="M7" s="48" t="s">
+        <v>131</v>
       </c>
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
@@ -6517,56 +6302,56 @@
       <c r="V7" s="51"/>
       <c r="W7" s="51"/>
       <c r="X7" s="51"/>
-      <c r="Y7" t="s" s="48">
-        <v>164</v>
+      <c r="Y7" s="48" t="s">
+        <v>144</v>
       </c>
       <c r="Z7" s="52"/>
       <c r="AA7" s="53"/>
-      <c r="AB7" t="s" s="46">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B7)&amp;"-"&amp;C7&amp;".html")</f>
-        <v>165</v>
+      <c r="AB7" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
       <c r="AC7" s="47"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:29" ht="15" customHeight="1">
       <c r="A8" s="38">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="48">
-        <v>159</v>
-      </c>
-      <c r="C8" t="s" s="48">
-        <v>166</v>
-      </c>
-      <c r="D8" t="s" s="48">
-        <v>52</v>
-      </c>
-      <c r="E8" t="b" s="49">
+      <c r="B8" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="F8" t="s" s="50">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B8)</f>
-        <v>161</v>
-      </c>
-      <c r="G8" t="s" s="46">
-        <v>133</v>
-      </c>
-      <c r="H8" t="s" s="46">
-        <v>133</v>
-      </c>
-      <c r="I8" t="s" s="46">
-        <v>162</v>
-      </c>
-      <c r="J8" t="s" s="48">
-        <f>B8&amp;"."&amp;C8</f>
-        <v>167</v>
-      </c>
-      <c r="K8" t="s" s="48">
-        <v>133</v>
+      <c r="F8" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!patient</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>!Patient.telecom</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>131</v>
       </c>
       <c r="L8" s="51"/>
-      <c r="M8" t="s" s="48">
-        <v>133</v>
+      <c r="M8" s="48" t="s">
+        <v>131</v>
       </c>
       <c r="N8" s="51"/>
       <c r="O8" s="51"/>
@@ -6579,886 +6364,886 @@
       <c r="V8" s="51"/>
       <c r="W8" s="51"/>
       <c r="X8" s="51"/>
-      <c r="Y8" t="s" s="48">
-        <v>168</v>
+      <c r="Y8" s="48" t="s">
+        <v>146</v>
       </c>
       <c r="Z8" s="51"/>
       <c r="AA8" s="53"/>
-      <c r="AB8" t="s" s="46">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B8)&amp;"-"&amp;C8&amp;".html")</f>
-        <v>169</v>
+      <c r="AB8" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
       <c r="AC8" s="47"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:29" ht="15" customHeight="1">
       <c r="A9" s="56">
         <v>1</v>
       </c>
-      <c r="B9" t="s" s="57">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s" s="57">
-        <v>170</v>
-      </c>
-      <c r="D9" t="s" s="57">
+      <c r="B9" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E9" t="b" s="56">
+      <c r="C9" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="F9" t="s" s="57">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s" s="58">
-        <v>133</v>
-      </c>
-      <c r="H9" t="s" s="58">
-        <v>133</v>
-      </c>
-      <c r="I9" t="s" s="58">
-        <v>134</v>
-      </c>
-      <c r="J9" t="s" s="57">
+      <c r="F9" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="57" t="str">
         <f>B9&amp;"."&amp;"managingOrganization"</f>
-        <v>171</v>
-      </c>
-      <c r="K9" t="s" s="57">
-        <v>133</v>
+        <v>Coverage.managingOrganization</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>131</v>
       </c>
       <c r="L9" s="59"/>
-      <c r="M9" t="s" s="57">
-        <v>133</v>
+      <c r="M9" s="57" t="s">
+        <v>131</v>
       </c>
       <c r="N9" s="59"/>
       <c r="O9" s="59"/>
       <c r="P9" s="59"/>
       <c r="Q9" s="59"/>
       <c r="R9" s="59"/>
-      <c r="S9" t="s" s="57">
-        <v>52</v>
+      <c r="S9" s="57" t="s">
+        <v>51</v>
       </c>
       <c r="T9" s="59"/>
-      <c r="U9" t="s" s="57">
-        <v>52</v>
+      <c r="U9" s="57" t="s">
+        <v>51</v>
       </c>
       <c r="V9" s="59"/>
       <c r="W9" s="59"/>
       <c r="X9" s="59"/>
-      <c r="Y9" t="s" s="60">
+      <c r="Y9" s="60" t="str">
         <f>"Support searching for a "&amp;B8&amp;" by its "&amp;C9</f>
-        <v>172</v>
+        <v>Support searching for a !Patient by its _id</v>
       </c>
       <c r="Z9" s="59"/>
       <c r="AA9" s="61"/>
-      <c r="AB9" t="s" s="58">
-        <f>"SearchParameter-carin-dic-"&amp;LOWER((B9)&amp;"-"&amp;C9&amp;".html")</f>
-        <v>173</v>
+      <c r="AB9" s="58" t="str">
+        <f t="shared" ref="AB9:AB21" si="3">"SearchParameter-carin-dic-"&amp;LOWER((B9)&amp;"-"&amp;C9&amp;".html")</f>
+        <v>SearchParameter-carin-dic-coverage-_id.html</v>
       </c>
       <c r="AC9" s="62"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:29" ht="15" customHeight="1">
       <c r="A10" s="63">
-        <f>A9+1</f>
+        <f t="shared" ref="A10:A21" si="4">A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s" s="8">
-        <v>174</v>
-      </c>
-      <c r="D10" t="s" s="8">
+      <c r="B10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="b" s="63">
+      <c r="C10" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="F10" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="J10" t="s" s="8">
+      <c r="F10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="8" t="str">
         <f>B10&amp;"."&amp;C10</f>
-        <v>175</v>
-      </c>
-      <c r="K10" t="s" s="8">
-        <v>133</v>
+        <v>Coverage._lastUpdated</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="L10" s="22"/>
-      <c r="M10" t="s" s="8">
-        <v>133</v>
+      <c r="M10" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
-      <c r="S10" t="s" s="8">
-        <v>52</v>
+      <c r="S10" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="T10" s="22"/>
-      <c r="U10" t="s" s="8">
-        <v>52</v>
+      <c r="U10" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
       <c r="X10" s="22"/>
-      <c r="Y10" t="s" s="64">
+      <c r="Y10" s="64" t="str">
         <f>"Support searching for a "&amp;B9&amp;" by its "&amp;C10</f>
-        <v>176</v>
+        <v>Support searching for a Coverage by its _lastUpdated</v>
       </c>
       <c r="Z10" s="65"/>
       <c r="AA10" s="66"/>
-      <c r="AB10" t="s" s="2">
-        <f>"SearchParameter-carin-dic-"&amp;LOWER((B10)&amp;"-"&amp;C10&amp;".html")</f>
-        <v>177</v>
+      <c r="AB10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>SearchParameter-carin-dic-coverage-_lastupdated.html</v>
       </c>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:29" ht="15" customHeight="1">
       <c r="A11" s="63">
-        <f>A10+1</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="B11" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s" s="8">
-        <v>178</v>
-      </c>
-      <c r="D11" t="s" s="8">
+      <c r="B11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="b" s="63">
+      <c r="C11" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="F11" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="J11" t="s" s="8">
+      <c r="F11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" s="8" t="str">
         <f>B11&amp;"."&amp;C11</f>
-        <v>179</v>
-      </c>
-      <c r="K11" t="s" s="8">
-        <v>133</v>
+        <v>Coverage.beneficiary</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="L11" s="22"/>
-      <c r="M11" t="s" s="8">
-        <v>133</v>
+      <c r="M11" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
-      <c r="S11" t="s" s="8">
-        <v>52</v>
+      <c r="S11" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="T11" s="22"/>
-      <c r="U11" t="s" s="8">
-        <v>52</v>
+      <c r="U11" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="V11" s="22"/>
       <c r="W11" s="22"/>
       <c r="X11" s="22"/>
-      <c r="Y11" t="s" s="64">
+      <c r="Y11" s="64" t="str">
         <f>"Support searching for a "&amp;B10&amp;" by its "&amp;C11</f>
-        <v>180</v>
+        <v>Support searching for a Coverage by its beneficiary</v>
       </c>
       <c r="Z11" s="65"/>
       <c r="AA11" s="66"/>
-      <c r="AB11" t="s" s="2">
-        <f>"SearchParameter-carin-dic-"&amp;LOWER((B11)&amp;"-"&amp;C11&amp;".html")</f>
-        <v>181</v>
+      <c r="AB11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>SearchParameter-carin-dic-coverage-beneficiary.html</v>
       </c>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:29" ht="15" customHeight="1">
       <c r="A12" s="63">
-        <f>A11+1</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B12" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s" s="8">
-        <v>182</v>
-      </c>
-      <c r="D12" t="s" s="8">
+      <c r="B12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="b" s="63">
+      <c r="C12" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="F12" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="J12" t="s" s="8">
+      <c r="F12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="8" t="str">
         <f>B12&amp;"."&amp;"provided_by"</f>
-        <v>183</v>
-      </c>
-      <c r="K12" t="s" s="8">
-        <v>133</v>
+        <v>Coverage.provided_by</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="L12" s="22"/>
-      <c r="M12" t="s" s="8">
-        <v>133</v>
+      <c r="M12" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
-      <c r="S12" t="s" s="8">
-        <v>52</v>
+      <c r="S12" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="T12" s="22"/>
-      <c r="U12" t="s" s="8">
-        <v>52</v>
+      <c r="U12" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="V12" s="22"/>
       <c r="W12" s="22"/>
       <c r="X12" s="22"/>
-      <c r="Y12" t="s" s="64">
+      <c r="Y12" s="64" t="str">
         <f>"Support searching for a "&amp;B11&amp;" by its "&amp;C12</f>
-        <v>184</v>
+        <v>Support searching for a Coverage by its subscriber</v>
       </c>
       <c r="Z12" s="22"/>
       <c r="AA12" s="66"/>
-      <c r="AB12" t="s" s="2">
-        <f>"SearchParameter-carin-dic-"&amp;LOWER((B12)&amp;"-"&amp;C12&amp;".html")</f>
-        <v>185</v>
+      <c r="AB12" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>SearchParameter-carin-dic-coverage-subscriber.html</v>
       </c>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:29" ht="15" customHeight="1">
       <c r="A13" s="63">
-        <f>A12+1</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B13" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s" s="8">
-        <v>147</v>
-      </c>
-      <c r="D13" t="s" s="8">
+      <c r="B13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E13" t="b" s="63">
+      <c r="C13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="F13" t="s" s="67">
-        <v>50</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="J13" t="s" s="8">
+      <c r="F13" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="8" t="str">
         <f>B13&amp;"."&amp;C13</f>
-        <v>186</v>
-      </c>
-      <c r="K13" t="s" s="8">
-        <v>133</v>
+        <v>Coverage.patient</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="L13" s="22"/>
-      <c r="M13" t="s" s="8">
-        <v>133</v>
+      <c r="M13" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
-      <c r="S13" t="s" s="8">
-        <v>52</v>
+      <c r="S13" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="T13" s="22"/>
-      <c r="U13" t="s" s="8">
-        <v>52</v>
+      <c r="U13" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="V13" s="22"/>
       <c r="W13" s="22"/>
       <c r="X13" s="22"/>
-      <c r="Y13" t="s" s="64">
+      <c r="Y13" s="64" t="str">
         <f>"Support searching for a "&amp;B12&amp;" by its "&amp;C13</f>
-        <v>187</v>
+        <v>Support searching for a Coverage by its patient</v>
       </c>
       <c r="Z13" s="22"/>
       <c r="AA13" s="66"/>
-      <c r="AB13" t="s" s="2">
-        <f>"SearchParameter-carin-dic-"&amp;LOWER((B13)&amp;"-"&amp;C13&amp;".html")</f>
-        <v>188</v>
+      <c r="AB13" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>SearchParameter-carin-dic-coverage-patient.html</v>
       </c>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:29" ht="15" customHeight="1">
       <c r="A14" s="63">
-        <f>A13+1</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B14" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s" s="8">
-        <v>189</v>
-      </c>
-      <c r="D14" t="s" s="8">
+      <c r="B14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E14" t="b" s="63">
+      <c r="C14" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="F14" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="J14" t="s" s="8">
+      <c r="F14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" s="8" t="str">
         <f>B14&amp;"."&amp;C14</f>
-        <v>190</v>
-      </c>
-      <c r="K14" t="s" s="8">
-        <v>133</v>
+        <v>Coverage.identifier</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="L14" s="22"/>
-      <c r="M14" t="s" s="8">
-        <v>133</v>
+      <c r="M14" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
-      <c r="S14" t="s" s="8">
-        <v>52</v>
+      <c r="S14" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="T14" s="22"/>
-      <c r="U14" t="s" s="8">
-        <v>52</v>
+      <c r="U14" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="V14" s="22"/>
       <c r="W14" s="22"/>
       <c r="X14" s="22"/>
-      <c r="Y14" t="s" s="64">
+      <c r="Y14" s="64" t="str">
         <f>"Support searching for a "&amp;B12&amp;" by its "&amp;C14</f>
-        <v>191</v>
+        <v>Support searching for a Coverage by its identifier</v>
       </c>
       <c r="Z14" s="65"/>
       <c r="AA14" s="21"/>
-      <c r="AB14" t="s" s="2">
-        <f>"SearchParameter-carin-dic-"&amp;LOWER((B14)&amp;"-"&amp;C14&amp;".html")</f>
-        <v>192</v>
+      <c r="AB14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>SearchParameter-carin-dic-coverage-identifier.html</v>
       </c>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" ht="19" customHeight="1">
+    <row r="15" spans="1:29" ht="19" customHeight="1">
       <c r="A15" s="63">
-        <f>A14+1</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B15" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s" s="8">
-        <v>193</v>
-      </c>
-      <c r="D15" t="s" s="8">
+      <c r="B15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E15" t="b" s="63">
+      <c r="C15" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="F15" t="s" s="67">
-        <v>50</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="J15" t="s" s="8">
-        <v>194</v>
-      </c>
-      <c r="K15" t="s" s="8">
-        <v>133</v>
+      <c r="F15" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="L15" s="22"/>
-      <c r="M15" t="s" s="8">
-        <v>133</v>
+      <c r="M15" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
-      <c r="S15" t="s" s="8">
-        <v>52</v>
+      <c r="S15" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="T15" s="22"/>
-      <c r="U15" t="s" s="8">
-        <v>52</v>
+      <c r="U15" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="V15" s="22"/>
       <c r="W15" s="22"/>
       <c r="X15" s="22"/>
-      <c r="Y15" t="s" s="64">
+      <c r="Y15" s="64" t="str">
         <f>"Support searching for a "&amp;B13&amp;" by its "&amp;C15</f>
-        <v>195</v>
+        <v>Support searching for a Coverage by its period</v>
       </c>
       <c r="Z15" s="22"/>
       <c r="AA15" s="21"/>
-      <c r="AB15" t="s" s="2">
-        <f>"SearchParameter-carin-dic-"&amp;LOWER((B15)&amp;"-"&amp;C15&amp;".html")</f>
-        <v>196</v>
+      <c r="AB15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>SearchParameter-carin-dic-coverage-period.html</v>
       </c>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" ht="19" customHeight="1">
+    <row r="16" spans="1:29" ht="19" customHeight="1">
       <c r="A16" s="63">
-        <f>A15+1</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B16" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s" s="8">
-        <v>155</v>
-      </c>
-      <c r="D16" t="s" s="8">
+      <c r="B16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E16" t="b" s="63">
+      <c r="C16" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="F16" t="s" s="67">
-        <v>50</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="J16" t="s" s="8">
-        <v>197</v>
-      </c>
-      <c r="K16" t="s" s="8">
-        <v>133</v>
+      <c r="F16" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="L16" s="22"/>
-      <c r="M16" t="s" s="8">
-        <v>133</v>
+      <c r="M16" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
-      <c r="S16" t="s" s="8">
-        <v>52</v>
+      <c r="S16" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="T16" s="22"/>
-      <c r="U16" t="s" s="8">
-        <v>52</v>
+      <c r="U16" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="V16" s="22"/>
       <c r="W16" s="22"/>
       <c r="X16" s="22"/>
-      <c r="Y16" t="s" s="64">
+      <c r="Y16" s="64" t="str">
         <f>"Support searching for a "&amp;B14&amp;" by its "&amp;C16</f>
-        <v>198</v>
+        <v>Support searching for a Coverage by its status</v>
       </c>
       <c r="Z16" s="22"/>
       <c r="AA16" s="21"/>
-      <c r="AB16" t="s" s="2">
-        <f>"SearchParameter-carin-dic-"&amp;LOWER((B16)&amp;"-"&amp;C16&amp;".html")</f>
-        <v>199</v>
+      <c r="AB16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>SearchParameter-carin-dic-coverage-status.html</v>
       </c>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:29" ht="15" customHeight="1">
       <c r="A17" s="63">
-        <f>A16+1</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="C17" t="s" s="8">
-        <v>170</v>
-      </c>
-      <c r="D17" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="E17" t="b" s="63">
+      <c r="B17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="F17" t="s" s="67">
-        <v>50</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="J17" t="s" s="8">
+      <c r="F17" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="8" t="str">
         <f>B17&amp;"."&amp;C17</f>
-        <v>200</v>
-      </c>
-      <c r="K17" t="s" s="8">
-        <v>133</v>
+        <v>Patient._id</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="L17" s="22"/>
-      <c r="M17" t="s" s="8">
-        <v>133</v>
+      <c r="M17" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
-      <c r="S17" t="s" s="8">
-        <v>52</v>
+      <c r="S17" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="T17" s="22"/>
-      <c r="U17" t="s" s="8">
-        <v>52</v>
+      <c r="U17" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="V17" s="22"/>
       <c r="W17" s="22"/>
       <c r="X17" s="22"/>
-      <c r="Y17" t="s" s="64">
+      <c r="Y17" s="64" t="str">
         <f>"Support searching for a "&amp;B13&amp;" by its "&amp;C17</f>
-        <v>201</v>
+        <v>Support searching for a Coverage by its _id</v>
       </c>
       <c r="Z17" s="65"/>
       <c r="AA17" s="21"/>
-      <c r="AB17" t="s" s="2">
-        <f>"SearchParameter-carin-dic-"&amp;LOWER((B17)&amp;"-"&amp;C17&amp;".html")</f>
-        <v>202</v>
+      <c r="AB17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>SearchParameter-carin-dic-patient-_id.html</v>
       </c>
       <c r="AC17" s="3"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
+    <row r="18" spans="1:29" ht="16" customHeight="1">
       <c r="A18" s="63">
-        <f>A17+1</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B18" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s" s="8">
-        <v>174</v>
-      </c>
-      <c r="D18" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="E18" t="b" s="63">
+      <c r="B18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="F18" t="s" s="68">
-        <v>58</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="J18" t="s" s="8">
+      <c r="F18" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="8" t="str">
         <f>B18&amp;"."&amp;C18</f>
-        <v>203</v>
-      </c>
-      <c r="K18" t="s" s="8">
-        <v>133</v>
+        <v>Patient._lastUpdated</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="L18" s="22"/>
-      <c r="M18" t="s" s="8">
-        <v>133</v>
+      <c r="M18" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
-      <c r="S18" t="s" s="8">
-        <v>52</v>
+      <c r="S18" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="T18" s="22"/>
-      <c r="U18" t="s" s="8">
-        <v>52</v>
+      <c r="U18" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="V18" s="22"/>
       <c r="W18" s="22"/>
       <c r="X18" s="22"/>
-      <c r="Y18" t="s" s="64">
+      <c r="Y18" s="64" t="str">
         <f>"Support searching for a "&amp;B14&amp;" by its "&amp;C18</f>
-        <v>176</v>
+        <v>Support searching for a Coverage by its _lastUpdated</v>
       </c>
       <c r="Z18" s="65"/>
       <c r="AA18" s="21"/>
-      <c r="AB18" t="s" s="2">
-        <f>"SearchParameter-carin-dic-"&amp;LOWER((B18)&amp;"-"&amp;C18&amp;".html")</f>
-        <v>204</v>
+      <c r="AB18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>SearchParameter-carin-dic-patient-_lastupdated.html</v>
       </c>
       <c r="AC18" s="3"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
+    <row r="19" spans="1:29" ht="16" customHeight="1">
       <c r="A19" s="63">
-        <f>A18+1</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B19" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s" s="8">
-        <v>189</v>
-      </c>
-      <c r="D19" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="E19" t="b" s="63">
+      <c r="B19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="F19" t="s" s="68">
-        <v>58</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="J19" t="s" s="8">
+      <c r="F19" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" s="8" t="str">
         <f>B19&amp;"."&amp;C19</f>
-        <v>205</v>
-      </c>
-      <c r="K19" t="s" s="8">
-        <v>133</v>
+        <v>Patient.identifier</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="L19" s="22"/>
-      <c r="M19" t="s" s="8">
-        <v>133</v>
+      <c r="M19" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
-      <c r="S19" t="s" s="8">
-        <v>52</v>
+      <c r="S19" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="T19" s="22"/>
-      <c r="U19" t="s" s="8">
-        <v>52</v>
+      <c r="U19" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="V19" s="22"/>
       <c r="W19" s="22"/>
       <c r="X19" s="22"/>
-      <c r="Y19" t="s" s="64">
+      <c r="Y19" s="64" t="str">
         <f>"Support searching for a "&amp;B17&amp;" by its "&amp;C19</f>
-        <v>206</v>
+        <v>Support searching for a Patient by its identifier</v>
       </c>
       <c r="Z19" s="65"/>
       <c r="AA19" s="21"/>
-      <c r="AB19" t="s" s="2">
-        <f>"SearchParameter-carin-dic-"&amp;LOWER((B19)&amp;"-"&amp;C19&amp;".html")</f>
-        <v>207</v>
+      <c r="AB19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>SearchParameter-carin-dic-patient-identifier.html</v>
       </c>
       <c r="AC19" s="3"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
+    <row r="20" spans="1:29" ht="16" customHeight="1">
       <c r="A20" s="63">
-        <f>A19+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B20" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="E20" t="b" s="63">
+      <c r="B20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="F20" t="s" s="68">
-        <v>58</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="J20" t="s" s="8">
+      <c r="F20" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="8" t="str">
         <f>B20&amp;"."&amp;C20</f>
-        <v>208</v>
-      </c>
-      <c r="K20" t="s" s="8">
-        <v>133</v>
+        <v>Patient.name</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="L20" s="22"/>
-      <c r="M20" t="s" s="8">
-        <v>133</v>
+      <c r="M20" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
       <c r="R20" s="22"/>
-      <c r="S20" t="s" s="8">
-        <v>52</v>
+      <c r="S20" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="T20" s="22"/>
-      <c r="U20" t="s" s="8">
-        <v>52</v>
+      <c r="U20" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="V20" s="22"/>
       <c r="W20" s="22"/>
       <c r="X20" s="22"/>
-      <c r="Y20" t="s" s="64">
+      <c r="Y20" s="64" t="str">
         <f>"Support searching for a "&amp;B18&amp;" by its "&amp;C20</f>
-        <v>209</v>
+        <v>Support searching for a Patient by its name</v>
       </c>
       <c r="Z20" s="65"/>
       <c r="AA20" s="21"/>
-      <c r="AB20" t="s" s="2">
-        <f>"SearchParameter-carin-dic-"&amp;LOWER((B20)&amp;"-"&amp;C20&amp;".html")</f>
-        <v>210</v>
+      <c r="AB20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>SearchParameter-carin-dic-patient-name.html</v>
       </c>
       <c r="AC20" s="3"/>
     </row>
-    <row r="21" ht="16" customHeight="1">
+    <row r="21" spans="1:29" ht="16" customHeight="1">
       <c r="A21" s="63">
-        <f>A20+1</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B21" t="s" s="8">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s" s="8">
-        <v>170</v>
-      </c>
-      <c r="D21" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="E21" t="b" s="63">
+      <c r="B21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="F21" t="s" s="68">
-        <v>55</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="J21" t="s" s="8">
+      <c r="F21" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="8" t="str">
         <f>B21&amp;"."&amp;C21</f>
-        <v>211</v>
-      </c>
-      <c r="K21" t="s" s="8">
-        <v>133</v>
+        <v>Organization._id</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="L21" s="22"/>
-      <c r="M21" t="s" s="8">
-        <v>133</v>
+      <c r="M21" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
-      <c r="S21" t="s" s="8">
-        <v>52</v>
+      <c r="S21" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="T21" s="22"/>
-      <c r="U21" t="s" s="8">
-        <v>52</v>
+      <c r="U21" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="V21" s="22"/>
       <c r="W21" s="22"/>
       <c r="X21" s="22"/>
-      <c r="Y21" t="s" s="64">
+      <c r="Y21" s="64" t="str">
         <f>"Support searching for a "&amp;B19&amp;" by its "&amp;C21</f>
-        <v>212</v>
+        <v>Support searching for a Patient by its _id</v>
       </c>
       <c r="Z21" s="65"/>
       <c r="AA21" s="21"/>
-      <c r="AB21" t="s" s="2">
-        <f>"SearchParameter-carin-dic-"&amp;LOWER((B21)&amp;"-"&amp;C21&amp;".html")</f>
-        <v>213</v>
+      <c r="AB21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>SearchParameter-carin-dic-organization-_id.html</v>
       </c>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" ht="19" customHeight="1">
+    <row r="22" spans="1:29" ht="19" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -7489,7 +7274,7 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23" ht="19" customHeight="1">
+    <row r="23" spans="1:29" ht="19" customHeight="1">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -7520,7 +7305,7 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
     </row>
-    <row r="24" ht="19" customHeight="1">
+    <row r="24" spans="1:29" ht="19" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -7551,7 +7336,7 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25" ht="19" customHeight="1">
+    <row r="25" spans="1:29" ht="19" customHeight="1">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -7582,7 +7367,7 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26" ht="19" customHeight="1">
+    <row r="26" spans="1:29" ht="19" customHeight="1">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -7613,7 +7398,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" ht="19" customHeight="1">
+    <row r="27" spans="1:29" ht="19" customHeight="1">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -7644,7 +7429,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" ht="19" customHeight="1">
+    <row r="28" spans="1:29" ht="19" customHeight="1">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -7675,7 +7460,7 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" ht="19" customHeight="1">
+    <row r="29" spans="1:29" ht="19" customHeight="1">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -7708,26 +7493,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" location="" tooltip="" display="http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Coverage"/>
-    <hyperlink ref="F10" r:id="rId2" location="" tooltip="" display="http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Coverage"/>
-    <hyperlink ref="F11" r:id="rId3" location="" tooltip="" display="http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Coverage"/>
-    <hyperlink ref="F12" r:id="rId4" location="" tooltip="" display="http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Coverage"/>
-    <hyperlink ref="F13" r:id="rId5" location="" tooltip="" display="http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Coverage"/>
-    <hyperlink ref="F14" r:id="rId6" location="" tooltip="" display="http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Coverage"/>
-    <hyperlink ref="F15" r:id="rId7" location="" tooltip="" display="http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Coverage"/>
-    <hyperlink ref="F16" r:id="rId8" location="" tooltip="" display="http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Coverage"/>
-    <hyperlink ref="F17" r:id="rId9" location="" tooltip="" display="http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Coverage"/>
-    <hyperlink ref="F18" r:id="rId10" location="" tooltip="" display="http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Patient"/>
-    <hyperlink ref="F19" r:id="rId11" location="" tooltip="" display="http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Patient"/>
-    <hyperlink ref="F20" r:id="rId12" location="" tooltip="" display="http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Patient"/>
-    <hyperlink ref="F21" r:id="rId13" location="" tooltip="" display="http://hl7.org/fhir/us/insurance-card/StructureDefinition/C4DIC-Organization"/>
+    <hyperlink ref="F9" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="F11" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="F12" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="F13" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="F14" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="F15" r:id="rId7" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
+    <hyperlink ref="F16" r:id="rId8" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
+    <hyperlink ref="F17" r:id="rId9" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
+    <hyperlink ref="F18" r:id="rId10" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{00000000-0004-0000-0800-00000A000000}"/>
+    <hyperlink ref="F20" r:id="rId12" xr:uid="{00000000-0004-0000-0800-00000B000000}"/>
+    <hyperlink ref="F21" r:id="rId13" xr:uid="{00000000-0004-0000-0800-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId14"/>
-  <legacyDrawing r:id="rId15"/>
+  <legacyDrawing r:id="rId14"/>
 </worksheet>
 </file>